--- a/arquivos/Dicionário de dados.xlsx
+++ b/arquivos/Dicionário de dados.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\java-projects\registro-refeicoes-java\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91008836-35C8-4571-BF38-0527185A29A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15D438C-AE7C-43D6-9FEC-88CE77A40C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6288" yWindow="1452" windowWidth="17280" windowHeight="10488" xr2:uid="{AD359268-130E-47A0-A8BE-0A7E64524DDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD359268-130E-47A0-A8BE-0A7E64524DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
   <si>
     <t>Atributo</t>
   </si>
@@ -95,84 +96,18 @@
     <t>PK, NOT NULL</t>
   </si>
   <si>
-    <t>Registra os dados de bioimpedância dos usuários.</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>id do usuario referenciando a tabela usuario</t>
-  </si>
-  <si>
-    <t>biopedancia</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
-    <t>data_avaliacao</t>
-  </si>
-  <si>
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>data da avaliação</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
-    <t>Peso medido na avaliação</t>
-  </si>
-  <si>
-    <t>gordura_percentual</t>
-  </si>
-  <si>
-    <t>Percentual de gordura corporal</t>
-  </si>
-  <si>
-    <t>massa_magra_percentual</t>
-  </si>
-  <si>
-    <t>peso_kg</t>
-  </si>
-  <si>
-    <t>massa_magra_kg</t>
-  </si>
-  <si>
-    <t>Massa magra em quilogramas</t>
-  </si>
-  <si>
-    <t>massa_gorda_kg</t>
-  </si>
-  <si>
-    <t>massa gorda em quilogramas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentual de massa magra corporal </t>
-  </si>
-  <si>
-    <t>IMC</t>
-  </si>
-  <si>
-    <t>Índice de Massa Corporal (peso / altura²)</t>
-  </si>
-  <si>
-    <t>taxa_metabolica_basal</t>
-  </si>
-  <si>
-    <t>Energia gasta em repouso (kcal/dia)</t>
-  </si>
-  <si>
-    <t>gordura_visceral</t>
-  </si>
-  <si>
-    <t>Nível ou grau de gordura visceral</t>
-  </si>
-  <si>
     <t>char</t>
   </si>
   <si>
@@ -216,15 +151,6 @@
   </si>
   <si>
     <t>PK, auto incremento</t>
-  </si>
-  <si>
-    <t>PF, auto incremento</t>
-  </si>
-  <si>
-    <t>Identificador único do registro</t>
-  </si>
-  <si>
-    <t>id_biopedancia</t>
   </si>
   <si>
     <t>Código do usuário</t>
@@ -390,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +326,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -460,12 +394,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -474,9 +405,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D006448A-BFCD-46A1-B5DC-8D24BAF55080}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,35 +762,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -867,24 +802,24 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -894,131 +829,131 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -1030,42 +965,42 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>62</v>
+      <c r="A18" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
+      <c r="A19" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -1074,199 +1009,178 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>33</v>
+      <c r="A21" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>57</v>
+      <c r="A35" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>15</v>
@@ -1275,195 +1189,209 @@
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="1" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="B49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>57</v>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>15</v>
@@ -1472,15 +1400,15 @@
         <v>17</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>82</v>
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>15</v>
@@ -1489,398 +1417,202 @@
         <v>17</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>91</v>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D54" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="B57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="B58" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="C63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="D65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="22">
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:E42"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="B47:E47"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:E50"/>
     <mergeCell ref="B57:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
